--- a/src/test/resources/BookIt.xlsx
+++ b/src/test/resources/BookIt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/IdeaProjects/GroupOneBookIt/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA479725-046F-BC41-9BC2-B03E7B97484A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E95ED-D0A1-4545-9EBE-9A070B5B17E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="14340" windowHeight="16640" xr2:uid="{4219F602-E010-6C41-9A28-3D403E76FA27}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="14340" windowHeight="16640" xr2:uid="{4219F602-E010-6C41-9A28-3D403E76FA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/test/resources/BookIt.xlsx
+++ b/src/test/resources/BookIt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/IdeaProjects/GroupOneBookIt/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E95ED-D0A1-4545-9EBE-9A070B5B17E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8168-9402-3145-B02C-139D377CF395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="14340" windowHeight="16640" xr2:uid="{4219F602-E010-6C41-9A28-3D403E76FA27}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="14340" windowHeight="16620" xr2:uid="{4219F602-E010-6C41-9A28-3D403E76FA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -636,7 +636,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -734,7 +734,7 @@
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -744,6 +744,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DAA56A13-88D0-5E41-9944-7F73096ABBB4}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{8CB520CD-E767-0E42-B6C6-0DE45376C97C}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{F86F42B0-5E55-A249-9E70-4267168D4C41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
